--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>2.77</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.83</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.02</v>
+        <v>2.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.26</v>
+        <v>3.17</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.86</v>
+        <v>8.02</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.92</v>
+        <v>9.26</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.17</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -3582,6 +3582,282 @@
       <c r="V34" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-zob-ahan/j3fnFI66/</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45204.65625</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:43</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45204.65625</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45204.75</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>05/10/2023 17:47</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>05/10/2023 17:47</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>05/10/2023 17:47</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-paykan/6Fh1OmYp/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3861,6 +3861,98 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45205.64583333334</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>05/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>05/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:25</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>05/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:27</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-foolad/rXypmXAo/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +3953,190 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45206.67708333334</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:05</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>06/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:05</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-esteghlal-teh/MNzlniQi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45206.76041666666</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>4</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:08</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>06/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>9.84</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:08</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-sanat-naft/GpzhoBub/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4137,6 +4137,190 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45207.65625</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:02</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:02</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>07/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:02</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-mazandaran/SKwdpVf4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45207.73958333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:35</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>07/10/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:35</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-gol-gohar/AqT0qkAA/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4321,6 +4321,98 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45216.6875</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>17/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>17/10/2023 16:27</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>17/10/2023 16:29</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-aluminium-arak/tj0FXiBb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4413,6 +4413,190 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45218.63888888889</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>19/10/2023 14:48</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>18/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>19/10/2023 13:00</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-persepolis/feeeSdZI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45218.72916666666</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>18/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:24</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>18/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:24</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>18/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>19/10/2023 17:24</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-malavan/6X72zfRu/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>3</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Sepahan</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
       <c r="J24" t="n">
-        <v>7.37</v>
+        <v>2.61</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>9.09</v>
+        <v>2.65</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:56</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.87</v>
+        <v>2.65</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:52</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:54</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-sepahan/ChX03L7f/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-sanat-naft/OUFOM98F/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sanat Naft</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
       <c r="J25" t="n">
-        <v>2.61</v>
+        <v>7.37</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.65</v>
+        <v>9.09</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:56</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>2.65</v>
+        <v>3.87</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2.42</v>
+        <v>3.46</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:52</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.22</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:54</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-sanat-naft/OUFOM98F/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-sepahan/ChX03L7f/</t>
         </is>
       </c>
     </row>
@@ -4594,6 +4594,190 @@
       <c r="V45" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-malavan/6X72zfRu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45219.6875</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:51</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>20/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-havadar-sc/zREIWBQ4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45219.72916666666</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>19/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>20/10/2023 17:28</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-esteghlal-khuzestan/dt3RUkeH/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>3</v>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Sanat Naft</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>2.61</v>
+        <v>7.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.65</v>
+        <v>9.09</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:56</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.65</v>
+        <v>3.87</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.42</v>
+        <v>3.46</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:52</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.22</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>29/08/2023 16:42</t>
+          <t>28/08/2023 16:42</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/08/2023 17:54</t>
+          <t>29/08/2023 17:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-sanat-naft/OUFOM98F/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-sepahan/ChX03L7f/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Sepahan</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
       <c r="J25" t="n">
-        <v>7.37</v>
+        <v>2.61</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>9.09</v>
+        <v>2.65</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:56</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.87</v>
+        <v>2.65</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.46</v>
+        <v>2.42</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:52</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>3.22</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>28/08/2023 16:42</t>
+          <t>29/08/2023 16:42</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.49</v>
+        <v>3.55</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/08/2023 17:59</t>
+          <t>29/08/2023 17:54</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-sepahan/ChX03L7f/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-sanat-naft/OUFOM98F/</t>
         </is>
       </c>
     </row>
@@ -4778,6 +4778,190 @@
       <c r="V47" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-esteghlal-khuzestan/dt3RUkeH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45220.6875</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P48" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>20/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:28</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-mes-rafsanjan/EHDMVVuB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45220.69791666666</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P49" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>16.34</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:44</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-shams-azar-qazvin/2a1BYXeh/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V49"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4965,6 +4965,650 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45226.6875</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:24</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P50" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:25</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45226.6875</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:17</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:18</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:18</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45226.72916666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:09</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:09</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>26/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>27/10/2023 17:09</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-shams-azar-qazvin/d0VCtmfT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45227.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:55</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-havadar-sc/2s8ux72p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45227.6875</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>27/10/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-mes-rafsanjan/GpCqyRHj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45228.52083333334</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>29/10/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-sepahan/8vaVbU9c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45228.5625</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:04</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:04</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>29/10/2023 09:40</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-persepolis/ljGSclP3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.77</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>3.83</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>3.63</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.85</v>
+        <v>8.02</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.17</v>
+        <v>9.26</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.63</v>
+        <v>2.43</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.02</v>
+        <v>2.86</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>9.26</v>
+        <v>2.92</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
         </is>
       </c>
     </row>
@@ -5606,6 +5606,374 @@
       <c r="V56" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-persepolis/ljGSclP3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45232.52083333334</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-zob-ahan/IV7qf6OS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45232.54166666666</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>01/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45232.54166666666</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>01/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>5.53</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>02/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45232.58333333334</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>01/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>01/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>01/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>02/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-malavan/S4cJm41d/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5977,6 +5977,98 @@
         </is>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45232.64583333334</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:27</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>01/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>02/11/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-sanat-naft/U9y2Cmvc/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V61"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>2.77</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.83</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.02</v>
+        <v>2.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.26</v>
+        <v>3.17</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.86</v>
+        <v>8.02</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.92</v>
+        <v>9.26</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.17</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -6066,6 +6066,190 @@
       <c r="V61" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-sanat-naft/U9y2Cmvc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45233.52083333334</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P62" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45233.52083333334</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>02/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>03/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.63</v>
+        <v>2.43</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.02</v>
+        <v>2.86</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>9.26</v>
+        <v>2.92</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.86</v>
+        <v>8.02</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.92</v>
+        <v>9.26</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,11 +6208,11 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,108 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45233.64583333334</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>02/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>02/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>02/11/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>03/11/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-gol-gohar/M3EzdSgG/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.86</v>
+        <v>8.02</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.92</v>
+        <v>9.26</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,63 +857,63 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.63</v>
+        <v>2.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>8.02</v>
+        <v>2.86</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>9.26</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
         <v>2.83</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>05/10/2023 09:42</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:43</t>
+          <t>05/10/2023 15:32</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:16</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,11 +6208,11 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
         </is>
       </c>
     </row>
@@ -6342,6 +6342,374 @@
       <c r="V64" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-gol-gohar/M3EzdSgG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45240.52083333334</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45240.52083333334</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-esteghlal-khuzestan/CfSExSU9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45240.52083333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>09/11/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>10/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-shams-azar-qazvin/biOAw8F3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45240.59375</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:14</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:14</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>09/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>10/11/2023 14:14</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-aluminium-arak/Y9GNz6aM/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:16</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
         <v>2.83</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>05/10/2023 09:42</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:43</t>
+          <t>05/10/2023 15:32</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.54</v>
+        <v>3.13</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:24</t>
+          <t>27/10/2023 16:17</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.42</v>
+        <v>2.69</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>6.44</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>7.84</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.13</v>
+        <v>1.54</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:17</t>
+          <t>27/10/2023 16:24</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.69</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.35</v>
+        <v>6.44</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.63</v>
+        <v>7.84</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
         </is>
       </c>
     </row>
@@ -6710,6 +6710,190 @@
       <c r="V68" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-aluminium-arak/Y9GNz6aM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:08</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>10/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-havadar-sc/rq2gVqNq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45241.57638888889</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:46</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>10/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:47</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-tractor/tzGRZPES/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.77</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.63</v>
+        <v>3.83</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.54</v>
+        <v>3.63</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.85</v>
+        <v>8.02</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.17</v>
+        <v>9.26</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.63</v>
+        <v>2.43</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>8.02</v>
+        <v>2.86</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>9.26</v>
+        <v>2.92</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.43</v>
+        <v>2.54</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.86</v>
+        <v>2.85</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.92</v>
+        <v>3.17</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
         <v>2.83</v>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O35" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>05/10/2023 09:42</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:43</t>
+          <t>05/10/2023 15:32</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:16</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,11 +6208,11 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,190 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-tractor/tzGRZPES/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-zob-ahan/Q7ibU3xj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-persepolis/vBe2TNid/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,98 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45253.59375</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>22/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>23/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>22/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>23/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>22/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>23/11/2023 14:11</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-sepahan/8O63MfNE/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Persepolis</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.37</v>
+        <v>2.62</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>2.77</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.83</v>
+        <v>2.63</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.02</v>
+        <v>2.85</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>02/08/2023 06:12</t>
+          <t>08/08/2023 06:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>9.26</v>
+        <v>3.17</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>09/08/2023 16:33</t>
+          <t>09/08/2023 17:47</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Persepolis</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>3.15</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.62</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2.43</v>
+        <v>3.63</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.86</v>
+        <v>8.02</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>08/08/2023 06:12</t>
+          <t>02/08/2023 06:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.92</v>
+        <v>9.26</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>09/08/2023 16:52</t>
+          <t>09/08/2023 16:33</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-aluminium-arak/xpKbcLUC/</t>
         </is>
       </c>
     </row>
@@ -849,19 +849,19 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>2.62</v>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.77</v>
+        <v>3.15</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>3.17</v>
+        <v>2.92</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>09/08/2023 17:47</t>
+          <t>09/08/2023 16:52</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-foolad/xAkf0Npf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-zob-ahan/4din2qGs/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>2.98</v>
+        <v>2.83</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.83</v>
+        <v>3.18</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>2.65</v>
+        <v>2.45</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:16</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.61</v>
+        <v>2.71</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.93</v>
+        <v>2.87</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>05/10/2023 15:32</t>
+          <t>05/10/2023 15:43</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>05/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
         <v>2.83</v>
       </c>
-      <c r="K36" t="inlineStr">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:32</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O36" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>05/10/2023 15:16</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>05/10/2023 09:42</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>05/10/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>05/10/2023 09:42</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>2.87</v>
+        <v>2.93</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>05/10/2023 15:43</t>
+          <t>05/10/2023 15:32</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-tractor/466ZSTPT/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-zob-ahan/Aq7VT9AN/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.13</v>
+        <v>1.54</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:17</t>
+          <t>27/10/2023 16:24</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.69</v>
+        <v>3.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>6.44</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>7.84</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.54</v>
+        <v>3.13</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:24</t>
+          <t>27/10/2023 16:17</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.42</v>
+        <v>2.69</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.44</v>
+        <v>2.35</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>7.84</v>
+        <v>2.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5.02</v>
+        <v>1.58</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5.08</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.63</v>
+        <v>5.39</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.85</v>
+        <v>5.53</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.58</v>
+        <v>5.02</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>5.08</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.39</v>
+        <v>1.63</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.53</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,11 +6116,11 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.55</v>
+        <v>3.62</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.29</v>
+        <v>4.31</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>03/11/2023 12:29</t>
+          <t>03/11/2023 12:28</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,11 +6208,11 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.62</v>
+        <v>3.55</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>4.31</v>
+        <v>4.29</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>03/11/2023 12:28</t>
+          <t>03/11/2023 12:29</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-paykan/KvfBkQWq/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-foolad/z7Iven9M/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,282 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-sepahan/8O63MfNE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45254.52083333334</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:10</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45254.52083333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>24/11/2023 11:33</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45254.52083333334</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>22/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>24/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1.58</v>
+        <v>5.02</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.71</v>
+        <v>5.08</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>5.39</v>
+        <v>1.63</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>5.53</v>
+        <v>1.85</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>5.02</v>
+        <v>1.58</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>5.08</v>
+        <v>1.71</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.63</v>
+        <v>5.39</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.85</v>
+        <v>5.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.89</v>
+        <v>4.59</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.45</v>
+        <v>2.73</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>3.16</v>
+        <v>2.05</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-shams-azar-qazvin/biOAw8F3/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>1.39</v>
+        <v>2.89</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>4.57</v>
+        <v>2.9</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>7.84</v>
+        <v>3.16</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-esteghlal-khuzestan/CfSExSU9/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G67" t="n">
@@ -6561,14 +6561,14 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I67" t="n">
         <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.68</v>
+        <v>1.81</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>4.59</v>
+        <v>1.39</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.64</v>
+        <v>2.92</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.77</v>
+        <v>4.57</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>2.05</v>
+        <v>7.84</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-shams-azar-qazvin/biOAw8F3/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-esteghlal-khuzestan/CfSExSU9/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,282 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45255.52083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>5.72</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-foolad/fqonEWUf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45255.52083333334</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-gol-gohar/0MorFCFl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45255.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>23/11/2023 09:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-esteghlal-teh/8nkjDjp1/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.54</v>
+        <v>3.13</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:24</t>
+          <t>27/10/2023 16:17</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.42</v>
+        <v>2.69</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>6.44</v>
+        <v>2.35</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>7.84</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3.13</v>
+        <v>1.54</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:17</t>
+          <t>27/10/2023 16:24</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>2.69</v>
+        <v>3.42</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.35</v>
+        <v>6.44</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>2.63</v>
+        <v>7.84</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.54</v>
+        <v>1.81</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,15 +6484,15 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>2.89</v>
+        <v>1.39</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>2.66</v>
+        <v>2.92</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -6500,15 +6500,15 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>2.45</v>
+        <v>3.45</v>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="R66" t="n">
-        <v>2.9</v>
+        <v>4.57</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="T66" t="n">
-        <v>3.16</v>
+        <v>7.84</v>
       </c>
       <c r="U66" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:29</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-esteghlal-khuzestan/CfSExSU9/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>1.39</v>
+        <v>2.89</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.92</v>
+        <v>2.66</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>3.45</v>
+        <v>2.45</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>4.57</v>
+        <v>2.9</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>7.84</v>
+        <v>3.16</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:29</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-esteghlal-khuzestan/CfSExSU9/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.8</v>
+        <v>3.43</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.36</v>
+        <v>3.36</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.58</v>
+        <v>6.31</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.43</v>
+        <v>7.1</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.51</v>
+        <v>1.85</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.16</v>
+        <v>2.1</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.96</v>
+        <v>4.58</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.81</v>
+        <v>4.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:33</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.53</v>
+        <v>2.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.58</v>
+        <v>3.16</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.43</v>
+        <v>2.65</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>6.31</v>
+        <v>2.96</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.1</v>
+        <v>2.81</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:33</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
         </is>
       </c>
     </row>
@@ -7722,6 +7722,1754 @@
       <c r="V79" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-esteghlal-teh/8nkjDjp1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45267.52083333334</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/12/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/12/2023 12:08</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/12/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-tractor/U1waBUED/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45268.52083333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:09</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>08/12/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:09</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-shams-azar-qazvin/M9upZX6K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45268.52083333334</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-zob-ahan/4YUlYiMQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45268.52083333334</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>07/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>08/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-aluminium-arak/rJttzEiE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45269.52083333334</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:53</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-esteghlal-khuzestan/tfMGTBUs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45269.52083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:17</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>08/12/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:17</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-mes-rafsanjan/zHLKSVql/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>09/12/2023 10:17</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>08/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>12.37</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>09/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-havadar-sc/E7KORkaf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45269.63541666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:06</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:06</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>08/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>09/12/2023 15:06</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-esteghlal-teh/WrFTQ9E0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45273.52083333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>12/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>12/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>12/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>13/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-gol-gohar/6FhzIKMm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45274.52083333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>14/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-foolad/lvbVI07s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45274.57291666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>14/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>14/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:43</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>14/12/2023 13:40</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-esteghlal-teh/vTjrGbi0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45274.625</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>14/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>14/12/2023 13:36</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>13/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>14/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-mazandaran/x0UC0JiD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45278.52083333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>4</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>18/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-malavan/4dDyPmqD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45278.52083333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>2</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>6.76</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>17/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>18/12/2023 11:50</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-paykan/AZDXPTT6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45279.47916666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>5</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>17/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-sepahan/GWGuO7bJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45279.52083333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-gol-gohar/betQVJHP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45279.52083333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>2</v>
+      </c>
+      <c r="J96" t="n">
+        <v>12.94</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>18/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>10.21</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>18/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>18/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>19/12/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-persepolis/jmYiRwQt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45279.52083333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>19/12/2023 10:32</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>19/12/2023 10:32</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>18/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>19/12/2023 11:41</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-sanat-naft/K4sMWa2J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45279.58333333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>18/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>19/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-foolad/UwXeQcum/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.43</v>
+        <v>2.8</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.36</v>
+        <v>2.36</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.31</v>
+        <v>4.58</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.1</v>
+        <v>4.43</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.1</v>
+        <v>3.16</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.58</v>
+        <v>2.96</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.43</v>
+        <v>2.81</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:33</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.51</v>
+        <v>1.53</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.16</v>
+        <v>1.58</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.65</v>
+        <v>3.43</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.5</v>
+        <v>3.36</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.96</v>
+        <v>6.31</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.81</v>
+        <v>7.1</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:33</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,98 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-foolad/UwXeQcum/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45279.625</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>18/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:25</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>18/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:25</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>18/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:25</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-mazandaran/C2M0PHfg/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Zob Ahan</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,14 +4997,14 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>3.13</v>
+        <v>1.54</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:17</t>
+          <t>27/10/2023 16:24</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>2.74</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2.69</v>
+        <v>3.42</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.35</v>
+        <v>6.44</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>7.84</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>27/10/2023 16:18</t>
+          <t>27/10/2023 16:25</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Zob Ahan</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.49</v>
+        <v>3.1</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.54</v>
+        <v>3.13</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:24</t>
+          <t>27/10/2023 16:17</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.49</v>
+        <v>2.74</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.42</v>
+        <v>2.69</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>6.44</v>
+        <v>2.35</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>7.84</v>
+        <v>2.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>27/10/2023 16:25</t>
+          <t>27/10/2023 16:18</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-aluminium-arak/lzS4r9PG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-tractor/I9W8sTvN/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Esteghlal F.C.</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>5.02</v>
+        <v>1.58</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>5.08</v>
+        <v>1.71</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>2.99</v>
+        <v>3.26</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.63</v>
+        <v>5.39</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>01/11/2023 00:42</t>
+          <t>01/11/2023 01:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.85</v>
+        <v>5.53</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>02/11/2023 12:59</t>
+          <t>02/11/2023 12:58</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Esteghlal F.C.</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.58</v>
+        <v>5.02</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.71</v>
+        <v>5.08</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.26</v>
+        <v>2.99</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>5.39</v>
+        <v>1.63</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>01/11/2023 01:12</t>
+          <t>01/11/2023 00:42</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.53</v>
+        <v>1.85</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>02/11/2023 12:58</t>
+          <t>02/11/2023 12:59</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-mazandaran/lEbFlpnj/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-esteghlal-teh/StFWd8vA/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.59</v>
+        <v>2.89</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2.73</v>
+        <v>2.45</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.77</v>
+        <v>2.9</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.05</v>
+        <v>3.16</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>10/11/2023 12:25</t>
+          <t>10/11/2023 12:26</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-shams-azar-qazvin/biOAw8F3/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
         </is>
       </c>
     </row>
@@ -6553,22 +6553,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -6576,15 +6576,15 @@
         </is>
       </c>
       <c r="L67" t="n">
-        <v>2.89</v>
+        <v>4.59</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
@@ -6592,15 +6592,15 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>2.45</v>
+        <v>2.73</v>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="R67" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -6608,16 +6608,16 @@
         </is>
       </c>
       <c r="T67" t="n">
-        <v>3.16</v>
+        <v>2.05</v>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>10/11/2023 12:26</t>
+          <t>10/11/2023 12:25</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-mes-rafsanjan/fJHJynpG/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-shams-azar-qazvin/biOAw8F3/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.8</v>
+        <v>3.43</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>2.36</v>
+        <v>3.36</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.58</v>
+        <v>6.31</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.43</v>
+        <v>7.1</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2.51</v>
+        <v>1.85</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.16</v>
+        <v>2.1</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.96</v>
+        <v>4.58</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.81</v>
+        <v>4.43</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/11/2023 11:33</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.53</v>
+        <v>2.51</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.58</v>
+        <v>3.16</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.43</v>
+        <v>2.65</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>6.31</v>
+        <v>2.96</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>7.1</v>
+        <v>2.81</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 11:33</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
         </is>
       </c>
     </row>
@@ -7473,22 +7473,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tractor</t>
+          <t>Shams Azar Qazvin</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Foolad</t>
+          <t>Gol Gohar</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>1.74</v>
+        <v>2.52</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.71</v>
+        <v>2.81</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/11/2023 12:29</t>
+          <t>25/11/2023 12:25</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.11</v>
+        <v>2.81</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.63</v>
+        <v>2.54</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>25/11/2023 12:29</t>
+          <t>25/11/2023 12:25</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>4.63</v>
+        <v>2.76</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>5.72</v>
+        <v>3.1</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/11/2023 12:29</t>
+          <t>25/11/2023 12:25</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-foolad/fqonEWUf/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-gol-gohar/0MorFCFl/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shams Azar Qazvin</t>
+          <t>Tractor</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Gol Gohar</t>
+          <t>Foolad</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.52</v>
+        <v>1.74</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.81</v>
+        <v>1.71</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/11/2023 12:25</t>
+          <t>25/11/2023 12:29</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>2.81</v>
+        <v>3.11</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.54</v>
+        <v>2.63</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/11/2023 12:25</t>
+          <t>25/11/2023 12:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.76</v>
+        <v>4.63</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.1</v>
+        <v>5.72</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/11/2023 12:25</t>
+          <t>25/11/2023 12:29</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-gol-gohar/0MorFCFl/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-foolad/fqonEWUf/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Sepahan</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>1</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Esteghlal Khuzestan</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>09/12/2023 12:25</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2.68</v>
+        <v>3.46</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>09/12/2023 12:25</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>4.6</v>
+        <v>5.99</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>5.06</v>
+        <v>6.48</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>09/12/2023 11:53</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-esteghlal-khuzestan/tfMGTBUs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-mes-rafsanjan/zHLKSVql/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sepahan</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 12:25</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 12:25</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.99</v>
+        <v>4.6</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.48</v>
+        <v>5.06</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 11:53</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-mes-rafsanjan/zHLKSVql/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-esteghlal-khuzestan/tfMGTBUs/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,1478 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-mazandaran/C2M0PHfg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>22/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>22/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>22/12/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/paykan-foolad/Q5Q4OyAa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45284.52083333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:30</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-havadar-sc/KSP8NeP5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45284.52083333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-esteghlal-teh/bJOCMFvC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45284.52083333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>23/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-khuzestan-mes-rafsanjan/WOSeqwnP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45284.54166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>23/12/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>24/12/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-aluminium-arak/vVuALZgI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45284.625</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>2</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>23/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>23/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>23/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>10</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>24/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-shams-azar-qazvin/ILvEKg9O/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45285.52083333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>23/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:28</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/malavan-tractor/j99SwH9n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45285.52083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:20</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>24/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>25/12/2023 12:25</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sanat-naft-zob-ahan/8pKNvcft/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45288.52083333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>27/12/2023 00:41</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>27/12/2023 00:41</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>27/12/2023 00:41</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>28/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/gol-gohar-sepahan/KzC6ZDtn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45288.625</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>27/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>27/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>27/12/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>28/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/persepolis-mazandaran/jBveCAa7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45290.52083333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Tractor</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sanat Naft</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>30/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>30/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>30/12/2023 10:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>7.17</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>30/12/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/tractor-sanat-naft/Kl1qzZ8B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45290.58333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Esteghlal F.C.</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Paykan</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>29/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>29/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>29/12/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>30/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/esteghlal-teh-paykan/Ua8WxyPh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45291.52083333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Havadar SC</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Esteghlal Khuzestan</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:26</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-esteghlal-khuzestan/bZCzxeva/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45291.52083333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Aluminium Arak</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Malavan</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:13</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>30/12/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>31/12/2023 12:18</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-malavan/xQBvyFg5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45292.54166666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Shams Azar Qazvin</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Sepahan</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>31/12/2024 01:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>01/01/2024 12:57</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>31/12/2024 01:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>01/01/2024 12:57</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>31/12/2024 01:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>01/01/2024 12:57</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/shams-azar-qazvin-sepahan/AVsGHQhp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45292.625</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Persepolis</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>31/12/2024 03:11</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>01/01/2024 14:39</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>31/12/2024 03:11</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>01/01/2024 14:39</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>31/12/2024 03:11</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>01/01/2024 14:38</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-persepolis/lMtKGp8j/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V115"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Sanat Naft</t>
+          <t>Paykan</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.58</v>
+        <v>2.1</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.43</v>
+        <v>2.8</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.36</v>
+        <v>2.36</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>6.31</v>
+        <v>4.58</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>7.1</v>
+        <v>4.43</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/11/2023 12:25</t>
+          <t>24/11/2023 12:10</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Paykan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.85</v>
+        <v>2.51</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.1</v>
+        <v>3.16</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>2.36</v>
+        <v>2.5</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:20</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.58</v>
+        <v>2.96</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.43</v>
+        <v>2.81</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/11/2023 12:10</t>
+          <t>24/11/2023 11:33</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-paykan/2o67LExL/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Mes Rafsanjan</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Sanat Naft</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2.51</v>
+        <v>1.53</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.16</v>
+        <v>1.58</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>2.65</v>
+        <v>3.43</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>2.5</v>
+        <v>3.36</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:20</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.96</v>
+        <v>6.31</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.81</v>
+        <v>7.1</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/11/2023 11:33</t>
+          <t>24/11/2023 12:25</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-malavan/tx5BKYiR/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-sanat-naft/MVnvGh0r/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sepahan</t>
+          <t>Nassaji Mazandaran</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Mes Rafsanjan</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.54</v>
+        <v>1.84</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 12:25</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.43</v>
+        <v>2.89</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.46</v>
+        <v>2.68</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 12:25</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.99</v>
+        <v>4.6</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>6.48</v>
+        <v>5.06</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>09/12/2023 12:17</t>
+          <t>09/12/2023 11:53</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-mes-rafsanjan/zHLKSVql/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-esteghlal-khuzestan/tfMGTBUs/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Nassaji Mazandaran</t>
+          <t>Sepahan</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Mes Rafsanjan</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>1</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Esteghlal Khuzestan</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.84</v>
+        <v>1.54</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>09/12/2023 12:25</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>2.89</v>
+        <v>3.43</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>2.68</v>
+        <v>3.46</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>09/12/2023 12:25</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.6</v>
+        <v>5.99</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>5.06</v>
+        <v>6.48</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>09/12/2023 11:53</t>
+          <t>09/12/2023 12:17</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mazandaran-esteghlal-khuzestan/tfMGTBUs/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/sepahan-mes-rafsanjan/zHLKSVql/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.32</v>
+        <v>2.87</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:13</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.61</v>
+        <v>2.34</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:13</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.48</v>
+        <v>3.11</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:18</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-esteghlal-khuzestan/bZCzxeva/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-malavan/xQBvyFg5/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.87</v>
+        <v>2.32</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:13</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.34</v>
+        <v>2.61</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:13</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.11</v>
+        <v>3.48</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:18</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-malavan/xQBvyFg5/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-esteghlal-khuzestan/bZCzxeva/</t>
         </is>
       </c>
     </row>
@@ -11034,6 +11034,98 @@
       <c r="V115" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/mes-rafsanjan-persepolis/lMtKGp8j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45294.52083333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Zob Ahan</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Gol Gohar</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>03/01/2024 12:29</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>03/01/2024 12:29</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>03/01/2024 12:29</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-gol-gohar/IZJnZhOH/</t>
         </is>
       </c>
     </row>

--- a/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
+++ b/2023/iran_persian-gulf-pro-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Aluminium Arak</t>
+          <t>Havadar SC</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Malavan</t>
+          <t>Esteghlal Khuzestan</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.87</v>
+        <v>2.32</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:13</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>2.58</v>
+        <v>2.69</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>2.34</v>
+        <v>2.61</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:13</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.11</v>
+        <v>3.48</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.39</v>
+        <v>3.9</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>31/12/2023 12:18</t>
+          <t>31/12/2023 12:26</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-malavan/xQBvyFg5/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-esteghlal-khuzestan/bZCzxeva/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Havadar SC</t>
+          <t>Aluminium Arak</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Malavan</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.32</v>
+        <v>2.87</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:13</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2.69</v>
+        <v>2.58</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>2.61</v>
+        <v>2.34</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:13</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.48</v>
+        <v>3.11</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>31/12/2023 12:26</t>
+          <t>31/12/2023 12:18</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/havadar-sc-esteghlal-khuzestan/bZCzxeva/</t>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/aluminium-arak-malavan/xQBvyFg5/</t>
         </is>
       </c>
     </row>
@@ -11126,6 +11126,98 @@
       <c r="V116" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/zob-ahan-gol-gohar/IZJnZhOH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>iran</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>persian-gulf-pro-league</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45294.63541666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Foolad</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Nassaji Mazandaran</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:14</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:14</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>02/01/2024 09:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>03/01/2024 15:14</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/iran/persian-gulf-pro-league/foolad-mazandaran/QwQ2uUpi/</t>
         </is>
       </c>
     </row>
